--- a/biology/Botanique/Carex_alba/Carex_alba.xlsx
+++ b/biology/Botanique/Carex_alba/Carex_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex alba, la Laîche blanche, est une espèce de plantes herbacées du genre Carex et de la famille des Cyperaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa tige grêle et presque lisse est haute de 15 à 40 cm. Ses feuilles très étroites sont presque aussi hautes que la tige.
 L'épi mâle est solitaire, souvent dépassé par l'épi femelle.
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex alba est présent dans les bois et les pâturages calcaires.
-Il pousse en Amérique boréale et en Europe centrale. En France, on le trouve dans 26 départements de l'est de l'Alsace au Var[1].
+Il pousse en Amérique boréale et en Europe centrale. En France, on le trouve dans 26 départements de l'est de l'Alsace au Var.
 </t>
         </is>
       </c>
